--- a/src/info/aquis_censo_turmas_cols.xlsx
+++ b/src/info/aquis_censo_turmas_cols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160F495-CD94-46B0-859E-FDEC405D5AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD9736-8B6D-4199-991A-C4FEA83B2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="195">
   <si>
     <t>NU_ANO_CENSO</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>IN_FUNDAMENTOS_EDUCACAO</t>
+  </si>
+  <si>
+    <t>ID_ESCOLA</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1840,7 @@
         <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,7 +2918,7 @@
         <v>33</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,7 +7989,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3258CC0-ADA6-4507-AB64-D90060B3088F}">
-  <dimension ref="A1:U178"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
